--- a/1_Data_Collection/P/Maize_PH/10-fold/Maize_PH_Mean_Std.xlsx
+++ b/1_Data_Collection/P/Maize_PH/10-fold/Maize_PH_Mean_Std.xlsx
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>210.971136469015</v>
+        <v>203.8817323008117</v>
       </c>
       <c r="C12" t="n">
-        <v>20.04272924626622</v>
+        <v>15.4979092610208</v>
       </c>
     </row>
   </sheetData>
